--- a/app/files/Heads List - template.xlsx
+++ b/app/files/Heads List - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/Documents/Degree/Semester8/6000CEM_Individual_Project_Preparation/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C11775A-F073-B445-8B84-1F8BCC7D4106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130F76F-A14F-8F45-AC1E-DE9817FABC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>test@newinti.edu.my</t>
-  </si>
-  <si>
     <t>Test 2</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>test3@newinti.edu.my</t>
+  </si>
+  <si>
+    <t>test@newinti.edu.m</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>

--- a/app/files/Heads List - template.xlsx
+++ b/app/files/Heads List - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130F76F-A14F-8F45-AC1E-DE9817FABC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A447E8C-1427-8641-8442-E8B6E0CE423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -66,6 +66,9 @@
     <t>Test</t>
   </si>
   <si>
+    <t>test@newinti.edu.my</t>
+  </si>
+  <si>
     <t>Test 2</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
   </si>
   <si>
     <t>test3@newinti.edu.my</t>
-  </si>
-  <si>
-    <t>test@newinti.edu.m</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>

--- a/app/files/Heads List - template.xlsx
+++ b/app/files/Heads List - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A447E8C-1427-8641-8442-E8B6E0CE423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3342EFA8-7976-D945-92C0-4FB56DDE1CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -54,38 +54,20 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Diploma</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
     <t>Certificate, Foundation</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>test@newinti.edu.my</t>
   </si>
   <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>test2@newinti.edu.my</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>test3@newinti.edu.my</t>
+    <t>Head Head Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +95,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,23 +147,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -182,9 +160,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,7 +502,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,43 +529,29 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{7EB11DB6-2E4A-C04F-BB74-AB40A5623680}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{4C77DE69-EF65-C641-B13D-BA0791569CCA}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{2C117BFB-B6A4-BD4B-ACC5-8BFD6D0C8B8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,7 +761,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>

--- a/app/files/Heads List - template.xlsx
+++ b/app/files/Heads List - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3342EFA8-7976-D945-92C0-4FB56DDE1CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A3D8A-7226-8545-9176-9C4BB8384A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Certificate, Foundation</t>
-  </si>
-  <si>
     <t>test@newinti.edu.my</t>
   </si>
   <si>
     <t>Head Head Head</t>
+  </si>
+  <si>
+    <t>Certificate,Foundation,Degree</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -530,13 +530,13 @@
     </row>
     <row r="3" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">

--- a/app/files/Heads List - template.xlsx
+++ b/app/files/Heads List - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A3D8A-7226-8545-9176-9C4BB8384A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DBF12B-4CD8-E943-9417-C200D7D5B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11520" xr2:uid="{2BE589B7-ED1B-B049-822C-7EFBE48C25F6}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>test@newinti.edu.my</t>
   </si>
   <si>
-    <t>Head Head Head</t>
+    <t>Test</t>
   </si>
   <si>
-    <t>Certificate,Foundation,Degree</t>
+    <t>Certificate, Foundation</t>
   </si>
 </sst>
 </file>
@@ -152,18 +152,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,13 +503,13 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -529,7 +530,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -540,14 +541,14 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -754,15 +755,15 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -770,7 +771,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
